--- a/DMMH.XLSX
+++ b/DMMH.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT APP SPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B3337-DBEA-4E19-907B-13DD9E20691E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D654B0A2-7FC5-4E52-99E7-15A1B9FFF42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="835">
   <si>
     <t>MAMH</t>
   </si>
@@ -2516,19 +2516,19 @@
     <t>10-DG0001, 10-PL0003,10-PL0001 ,3-DG0001</t>
   </si>
   <si>
-    <t>3-TH0011, 3-D50001 , 3-DC0001, 1-HH0056, 1-HH0005,1-HH0013 ,1-HH0047,1-HH0050,2-DC0001)</t>
-  </si>
-  <si>
     <t>1-PX0026, 1-PX0023,1- PM0003,1-PL0001,2-HH0017, 1-SD0001 ,1-XL0001</t>
   </si>
   <si>
-    <t>1-PX0021,1-PL0001, 2-HH0017,SD0001 ,1-XL0001</t>
-  </si>
-  <si>
     <t>1-PM0003,1- PL0001, 2-HH0017, 1-SD0001, 1-XL0001</t>
   </si>
   <si>
     <t>6-RF0055, 6-MS0017, 6-HH0034,6-RF0055</t>
+  </si>
+  <si>
+    <t>3-TH0011, 3-D50001 , 3-DC0001, 1-HH0056, 1-HH0005,1-HH0013 ,1-HH0047,1-HH0050,2-DC0001</t>
+  </si>
+  <si>
+    <t>1-PX0021,1-PL0001, 2-HH0017,1-SD0001 ,1-XL0001</t>
   </si>
 </sst>
 </file>
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,7 +3279,7 @@
         <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,7 +5690,7 @@
         <v>192</v>
       </c>
       <c r="D241" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
         <v>192</v>
       </c>
       <c r="D242" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>192</v>
       </c>
       <c r="D243" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6468,7 +6468,7 @@
         <v>192</v>
       </c>
       <c r="D309" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
